--- a/BackTest/2020-01-14 BackTest XSR.xlsx
+++ b/BackTest/2020-01-14 BackTest XSR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-639978.5902703153</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-639839.5902703153</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-386344.3238703153</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-385744.3238703153</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-385880.7084703153</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-378580.7084703153</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-616515.3177703153</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-441034.9299703153</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-769649.4178703153</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-598382.2267703153</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-573279.1752703153</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-289964.2533703152</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-432756.1748703152</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-432485.9572703153</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-418556.7325703152</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-536075.2592703153</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-369287.0581703153</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-369887.0581703153</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-369887.0581703153</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-369887.0581703153</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-829430.9092703153</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-829730.9092703153</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-923816.2529703153</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1106559.723770315</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-1106559.723770315</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-926929.7137703153</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1189957.071970315</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1500476.098270315</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1362400.642870315</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-1362400.642870315</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-1319290.469970315</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-1319290.469970315</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-1920397.972870315</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-1920397.972870315</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-2252062.327370315</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-2045728.426170315</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-1888063.145870315</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-1888063.145870315</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-1718815.161070315</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1719015.161070315</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-1434293.252370315</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-1433980.568270315</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1134192.548470315</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-1083279.099770315</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-1622441.251470315</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-1795787.096370315</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-1462688.660570315</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-1202640.864070315</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-1202640.864070315</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-946397.2014703152</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-946025.3974703152</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-809413.1501703153</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-808758.9706703153</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1116289.872270315</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1116224.872270315</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-1336511.879570315</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-1394819.818070315</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1394819.818070315</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1160797.674470315</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1160797.674470315</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-1346432.833970315</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1408068.740270315</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1237064.358070315</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1244913.327370315</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1081252.278970315</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1081252.278970315</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-789675.0201703154</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-789383.2573703154</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-563143.2029703154</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-748806.1842703153</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-747329.0527703153</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-928179.1058703153</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-1262537.898270315</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-1225514.213143967</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-1054125.135343967</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-823321.1026439668</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-1003180.349943967</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-855645.8342439668</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-855645.8342439668</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-1051038.516743967</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-1050938.516743967</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-1050938.516743967</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-1050938.516743967</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-773394.0550439669</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-1033224.403943967</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-711376.5881439669</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-406581.0691439669</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-74080.24614396691</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>660738.8332560331</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>660051.9763560331</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-601840.0604439669</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-930883.6389439669</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-720066.4503439669</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-869941.8459439669</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-1001053.799143967</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-781342.8565439668</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-781342.8565439668</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-914333.1722439668</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-914333.1722439668</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-1753838.755736799</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-1621989.372536798</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-1621989.372536798</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-1494972.433736798</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-1540342.998436798</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-1865060.178036798</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-2386505.798036798</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-2386505.798036798</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-2597631.778636798</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-2597631.778636798</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-2599362.759436798</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-2599362.759436798</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-2836090.209936798</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-3567492.517536798</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-2851917.038736798</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-2855025.139736798</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-2855025.139736798</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-2687650.400936798</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-2893932.382236798</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-2597823.853636798</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-2597823.853636798</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-2597405.567936799</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-2857039.727436799</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-2675400.872936799</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-2898588.856236799</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-2936633.499236799</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-2703741.956436799</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-2997710.736636799</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-3010912.760036799</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-3151930.454036799</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-6038232.708036799</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-5689418.387036799</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-5390097.767236799</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-5717350.883936799</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-5717176.376436799</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-5717176.376436799</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-5503463.492136799</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-5502921.742236799</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-5220695.492736799</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-5548862.674336798</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-5575081.969836798</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-5578670.996536799</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-6185403.541736798</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-6010262.586836798</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-6009845.780236798</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-6280729.488036798</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-6048499.820236798</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-6047916.014936798</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-5994136.627136799</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-5612762.367736799</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-5657434.938736799</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-5656856.2022368</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-5540595.545136799</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-5923890.865436799</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-5966834.934936799</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-6357591.422836798</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-6351451.595636798</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-6501501.926336798</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-6430231.21455096</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-6427016.60395096</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-6730997.282350959</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-6730997.282350959</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-6994567.22785096</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-7258886.568450959</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-7257714.47125096</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-7138624.77115096</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-7283989.34215096</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-7283921.34215096</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-7284023.82255096</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-7284023.82255096</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-7568113.059650959</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-8296073.20485096</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-8338517.976850959</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-6974284.584950959</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-6974284.584950959</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-7085817.120650959</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-7319095.41815096</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-7190077.050350959</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-7151321.17735096</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-7154830.87425096</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-6907808.22165096</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-6908474.22165096</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-6651774.02385096</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-6920148.805350959</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-6755102.02165096</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-6866343.00135096</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-6631636.519650959</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-19885323.3757606</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I336" t="n">
         <v>6.88</v>
@@ -11512,9 +11512,11 @@
         <v>-19031223.8984606</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>6.87</v>
+      </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
@@ -11549,7 +11551,7 @@
         <v>-19436818.8305606</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I338" t="n">
         <v>6.9</v>
@@ -11588,7 +11590,7 @@
         <v>-19233403.2386606</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I339" t="n">
         <v>6.873</v>
@@ -11627,7 +11629,7 @@
         <v>-18771441.42516061</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I340" t="n">
         <v>6.909</v>
@@ -11666,9 +11668,11 @@
         <v>-18651367.56556061</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>6.928</v>
+      </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
@@ -11703,9 +11707,11 @@
         <v>-18695571.99496061</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>6.93</v>
+      </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
@@ -11777,9 +11783,11 @@
         <v>-18695571.99496061</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>6.917</v>
+      </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
@@ -11814,11 +11822,9 @@
         <v>-18665499.99496061</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
-      </c>
-      <c r="I345" t="n">
-        <v>6.917</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
@@ -12741,11 +12747,9 @@
         <v>-15639351.59620284</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
-      </c>
-      <c r="I370" t="n">
-        <v>7.101</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
@@ -13224,11 +13228,9 @@
         <v>-16014287.64212066</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
-      </c>
-      <c r="I383" t="n">
-        <v>7.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
@@ -13263,11 +13265,9 @@
         <v>-15710148.40542066</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
-      </c>
-      <c r="I384" t="n">
-        <v>7.039</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
@@ -13302,11 +13302,9 @@
         <v>-15764289.12822066</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
-      </c>
-      <c r="I385" t="n">
-        <v>7.048</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
@@ -13341,11 +13339,9 @@
         <v>-15777687.87122066</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
-      </c>
-      <c r="I386" t="n">
-        <v>7.038</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
@@ -13380,11 +13376,9 @@
         <v>-16470640.75532066</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
-      </c>
-      <c r="I387" t="n">
-        <v>7.033</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
@@ -13419,11 +13413,9 @@
         <v>-16316065.39502065</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
-      </c>
-      <c r="I388" t="n">
-        <v>6.998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
@@ -13458,11 +13450,9 @@
         <v>-16316065.39502065</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
-      </c>
-      <c r="I389" t="n">
-        <v>7.032</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
@@ -13497,11 +13487,9 @@
         <v>-16052838.50376828</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
-      </c>
-      <c r="I390" t="n">
-        <v>7.032</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
@@ -13536,11 +13524,9 @@
         <v>-15839925.14856622</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
-      </c>
-      <c r="I391" t="n">
-        <v>7.043</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
@@ -13575,11 +13561,9 @@
         <v>-15839925.14856622</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
-      </c>
-      <c r="I392" t="n">
-        <v>7.088</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
@@ -13614,11 +13598,9 @@
         <v>-15840086.77366622</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
-      </c>
-      <c r="I393" t="n">
-        <v>7.088</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
@@ -13653,11 +13635,9 @@
         <v>-16003709.24256622</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
-      </c>
-      <c r="I394" t="n">
-        <v>7.043</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
@@ -13692,11 +13672,9 @@
         <v>-15794755.82506622</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
-      </c>
-      <c r="I395" t="n">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
@@ -13731,11 +13709,9 @@
         <v>-15785774.88366622</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
-      </c>
-      <c r="I396" t="n">
-        <v>7.011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
@@ -13770,11 +13746,9 @@
         <v>-15507690.36586622</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
-      </c>
-      <c r="I397" t="n">
-        <v>7.012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
@@ -13809,11 +13783,9 @@
         <v>-15725115.61226622</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
-      </c>
-      <c r="I398" t="n">
-        <v>7.079</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
@@ -13848,11 +13820,9 @@
         <v>-16143233.15546622</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
-      </c>
-      <c r="I399" t="n">
-        <v>7.045</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
@@ -13887,11 +13857,9 @@
         <v>-15889230.58046622</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
-      </c>
-      <c r="I400" t="n">
-        <v>7.012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
@@ -13926,11 +13894,9 @@
         <v>-15889230.58046622</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
-      </c>
-      <c r="I401" t="n">
-        <v>7.029</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
@@ -13965,11 +13931,9 @@
         <v>-15860970.70996622</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
-      </c>
-      <c r="I402" t="n">
-        <v>7.029</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
@@ -14004,11 +13968,9 @@
         <v>-15560978.03676622</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
-      </c>
-      <c r="I403" t="n">
-        <v>7.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
@@ -14043,11 +14005,9 @@
         <v>-15580020.50446622</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
-      </c>
-      <c r="I404" t="n">
-        <v>7.059</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
@@ -14082,11 +14042,9 @@
         <v>-15946744.92676622</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
-      </c>
-      <c r="I405" t="n">
-        <v>7.029</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
@@ -14121,11 +14079,9 @@
         <v>-15723350.33826622</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
-      </c>
-      <c r="I406" t="n">
-        <v>7.003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
@@ -14160,11 +14116,9 @@
         <v>-15771106.57113121</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
-      </c>
-      <c r="I407" t="n">
-        <v>7.049</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
@@ -14199,11 +14153,9 @@
         <v>-15491544.05663121</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
-      </c>
-      <c r="I408" t="n">
-        <v>7.003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
@@ -14238,11 +14190,9 @@
         <v>-15361228.42163121</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
-      </c>
-      <c r="I409" t="n">
-        <v>7.032</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
@@ -14277,11 +14227,9 @@
         <v>-15386903.14733121</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
-      </c>
-      <c r="I410" t="n">
-        <v>7.046</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
@@ -14316,11 +14264,9 @@
         <v>-15386903.14733121</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
-      </c>
-      <c r="I411" t="n">
-        <v>7.039</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
@@ -14355,11 +14301,9 @@
         <v>-15624460.99723121</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
-      </c>
-      <c r="I412" t="n">
-        <v>7.039</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
@@ -14394,11 +14338,9 @@
         <v>-15359084.97613121</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
-      </c>
-      <c r="I413" t="n">
-        <v>7.032</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
@@ -14433,11 +14375,9 @@
         <v>-14720672.38943121</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
-      </c>
-      <c r="I414" t="n">
-        <v>7.033</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
@@ -14472,11 +14412,9 @@
         <v>-14721334.13203121</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
-      </c>
-      <c r="I415" t="n">
-        <v>7.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
@@ -14511,11 +14449,9 @@
         <v>-14377236.12963121</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
-      </c>
-      <c r="I416" t="n">
-        <v>7.033</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
@@ -14550,11 +14486,9 @@
         <v>-14042905.80163121</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
-      </c>
-      <c r="I417" t="n">
-        <v>7.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
@@ -14589,11 +14523,9 @@
         <v>-14042905.80163121</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
-      </c>
-      <c r="I418" t="n">
-        <v>7.109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
@@ -14628,11 +14560,9 @@
         <v>-14042905.80163121</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
-      </c>
-      <c r="I419" t="n">
-        <v>7.109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
@@ -14667,11 +14597,9 @@
         <v>-13879182.05053121</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
-      </c>
-      <c r="I420" t="n">
-        <v>7.109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
@@ -14780,11 +14708,9 @@
         <v>-14154211.38053121</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
-      </c>
-      <c r="I423" t="n">
-        <v>7.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
@@ -14819,11 +14745,9 @@
         <v>-14339121.98013121</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
-      </c>
-      <c r="I424" t="n">
-        <v>7.083</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
@@ -15080,11 +15004,9 @@
         <v>-13338808.55443121</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
-      </c>
-      <c r="I431" t="n">
-        <v>7.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
@@ -15119,11 +15041,9 @@
         <v>-13346467.55443121</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
-      </c>
-      <c r="I432" t="n">
-        <v>7.105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
@@ -15417,11 +15337,9 @@
         <v>-12865740.73403121</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
-      </c>
-      <c r="I440" t="n">
-        <v>7.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
@@ -15567,11 +15485,9 @@
         <v>-14905463.28563121</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
-      </c>
-      <c r="I444" t="n">
-        <v>7.062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
@@ -15606,11 +15522,9 @@
         <v>-14525219.95493121</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
-      </c>
-      <c r="I445" t="n">
-        <v>7.034</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
@@ -15645,11 +15559,9 @@
         <v>-14525219.95493121</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
-      </c>
-      <c r="I446" t="n">
-        <v>7.089</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
@@ -15684,11 +15596,9 @@
         <v>-14659605.87345635</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
-      </c>
-      <c r="I447" t="n">
-        <v>7.089</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
@@ -15723,11 +15633,9 @@
         <v>-14897428.90455635</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
-      </c>
-      <c r="I448" t="n">
-        <v>7.034</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
@@ -15762,11 +15670,9 @@
         <v>-14724334.93695635</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
-      </c>
-      <c r="I449" t="n">
-        <v>7.008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
@@ -15801,11 +15707,9 @@
         <v>-14724334.93695635</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
-      </c>
-      <c r="I450" t="n">
-        <v>7.016</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
@@ -15840,11 +15744,9 @@
         <v>-14975263.48285635</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
-      </c>
-      <c r="I451" t="n">
-        <v>7.016</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
@@ -15879,11 +15781,9 @@
         <v>-14789779.95375635</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
-      </c>
-      <c r="I452" t="n">
-        <v>7.007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
@@ -15918,11 +15818,9 @@
         <v>-14789502.07555635</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
-      </c>
-      <c r="I453" t="n">
-        <v>7.012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
@@ -15957,11 +15855,9 @@
         <v>-14493484.33885635</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
-      </c>
-      <c r="I454" t="n">
-        <v>7.016</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
@@ -15996,11 +15892,9 @@
         <v>-14493259.21835635</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
-      </c>
-      <c r="I455" t="n">
-        <v>7.088</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
@@ -16035,11 +15929,9 @@
         <v>-14533475.00675635</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
-      </c>
-      <c r="I456" t="n">
-        <v>7.098</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
@@ -16074,11 +15966,9 @@
         <v>-14533475.00675635</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
-      </c>
-      <c r="I457" t="n">
-        <v>7.089</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
@@ -16113,11 +16003,9 @@
         <v>-14533475.00675635</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
-      </c>
-      <c r="I458" t="n">
-        <v>7.089</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
@@ -16152,11 +16040,9 @@
         <v>-14493254.85275635</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
-      </c>
-      <c r="I459" t="n">
-        <v>7.089</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
@@ -16191,11 +16077,9 @@
         <v>-14175315.60973581</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
-      </c>
-      <c r="I460" t="n">
-        <v>7.093</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
@@ -16267,11 +16151,9 @@
         <v>-14401635.30883581</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
-      </c>
-      <c r="I462" t="n">
-        <v>7.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
@@ -16454,11 +16336,9 @@
         <v>-14849677.62053581</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
-      </c>
-      <c r="I467" t="n">
-        <v>7.119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
@@ -16530,11 +16410,9 @@
         <v>-14696833.65233581</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
-      </c>
-      <c r="I469" t="n">
-        <v>7.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
@@ -16569,11 +16447,9 @@
         <v>-14396380.40483581</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
-      </c>
-      <c r="I470" t="n">
-        <v>7.044</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
@@ -16608,11 +16484,9 @@
         <v>-14396113.56943581</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
-      </c>
-      <c r="I471" t="n">
-        <v>7.055</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
@@ -16647,11 +16521,9 @@
         <v>-14131048.63943581</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
-      </c>
-      <c r="I472" t="n">
-        <v>7.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
@@ -16686,11 +16558,9 @@
         <v>-14470090.35813581</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
-      </c>
-      <c r="I473" t="n">
-        <v>7.118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
@@ -16725,11 +16595,9 @@
         <v>-14470590.35813581</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
-      </c>
-      <c r="I474" t="n">
-        <v>7.115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
@@ -16764,11 +16632,9 @@
         <v>-14470590.35813581</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
-      </c>
-      <c r="I475" t="n">
-        <v>7.085</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
@@ -16803,11 +16669,9 @@
         <v>-14860056.78433581</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
-      </c>
-      <c r="I476" t="n">
-        <v>7.085</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
@@ -16842,11 +16706,9 @@
         <v>-14860999.45953581</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
-      </c>
-      <c r="I477" t="n">
-        <v>7.083</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
@@ -16881,11 +16743,9 @@
         <v>-15050214.66193581</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
-      </c>
-      <c r="I478" t="n">
-        <v>7.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
@@ -16920,11 +16780,9 @@
         <v>-15049926.42193581</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
-      </c>
-      <c r="I479" t="n">
-        <v>7.059</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
@@ -16959,11 +16817,9 @@
         <v>-15049926.42193581</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
-      </c>
-      <c r="I480" t="n">
-        <v>7.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
@@ -16998,11 +16854,9 @@
         <v>-14692249.73933581</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
-      </c>
-      <c r="I481" t="n">
-        <v>7.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
@@ -17037,11 +16891,9 @@
         <v>-14692904.98923581</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
-      </c>
-      <c r="I482" t="n">
-        <v>7.066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
@@ -17076,11 +16928,9 @@
         <v>-14348796.68083581</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
-      </c>
-      <c r="I483" t="n">
-        <v>7.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
@@ -17115,11 +16965,9 @@
         <v>-14055923.32441818</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
-      </c>
-      <c r="I484" t="n">
-        <v>7.065</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
@@ -17228,11 +17076,9 @@
         <v>-13912125.76441818</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
-      </c>
-      <c r="I487" t="n">
-        <v>7.115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
@@ -17526,11 +17372,9 @@
         <v>-14296689.16801818</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
-      </c>
-      <c r="I495" t="n">
-        <v>7.094</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
@@ -17602,11 +17446,9 @@
         <v>-14361037.00141818</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
-      </c>
-      <c r="I497" t="n">
-        <v>7.059</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
@@ -17641,11 +17483,9 @@
         <v>-14009948.81201818</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
-      </c>
-      <c r="I498" t="n">
-        <v>7.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
@@ -17680,11 +17520,9 @@
         <v>-14321765.77451818</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
-      </c>
-      <c r="I499" t="n">
-        <v>7.105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
@@ -17719,11 +17557,9 @@
         <v>-14321765.77451818</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
-      </c>
-      <c r="I500" t="n">
-        <v>7.062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
@@ -17758,11 +17594,9 @@
         <v>-14341337.52161818</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
-      </c>
-      <c r="I501" t="n">
-        <v>7.062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
@@ -17797,11 +17631,9 @@
         <v>-14341337.52161818</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
-      </c>
-      <c r="I502" t="n">
-        <v>7.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
@@ -17836,11 +17668,9 @@
         <v>-14163755.94621818</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
-      </c>
-      <c r="I503" t="n">
-        <v>7.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
@@ -17875,11 +17705,9 @@
         <v>-13888616.46511818</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
-      </c>
-      <c r="I504" t="n">
-        <v>7.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
@@ -17914,11 +17742,9 @@
         <v>-13888922.98391818</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
-      </c>
-      <c r="I505" t="n">
-        <v>7.088</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
@@ -17953,11 +17779,9 @@
         <v>-14160402.77561818</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
-      </c>
-      <c r="I506" t="n">
-        <v>7.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
@@ -17992,11 +17816,9 @@
         <v>-14563754.17491817</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
-      </c>
-      <c r="I507" t="n">
-        <v>7.068</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
@@ -18031,11 +17853,9 @@
         <v>-14705157.95491817</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
-      </c>
-      <c r="I508" t="n">
-        <v>7.045</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
@@ -18070,11 +17890,9 @@
         <v>-14369865.70841817</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
-      </c>
-      <c r="I509" t="n">
-        <v>7.035</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
@@ -18109,11 +17927,9 @@
         <v>-14331337.88791817</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
-      </c>
-      <c r="I510" t="n">
-        <v>7.037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
@@ -18148,11 +17964,9 @@
         <v>-14285805.29161817</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
-      </c>
-      <c r="I511" t="n">
-        <v>7.053</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
@@ -18187,11 +18001,9 @@
         <v>-14509278.58581817</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
-      </c>
-      <c r="I512" t="n">
-        <v>7.077</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
@@ -18448,11 +18260,9 @@
         <v>-15515840.60342453</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
-      </c>
-      <c r="I519" t="n">
-        <v>7.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
@@ -18487,11 +18297,9 @@
         <v>-15212011.71662453</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
-      </c>
-      <c r="I520" t="n">
-        <v>7.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
@@ -18526,11 +18334,9 @@
         <v>-15212011.71662453</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
-      </c>
-      <c r="I521" t="n">
-        <v>7.062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
@@ -18565,11 +18371,9 @@
         <v>-15364340.09762453</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
-      </c>
-      <c r="I522" t="n">
-        <v>7.062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
@@ -18604,11 +18408,9 @@
         <v>-15220783.09942453</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
-      </c>
-      <c r="I523" t="n">
-        <v>7.045</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
@@ -18643,11 +18445,9 @@
         <v>-15220677.27342453</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
-      </c>
-      <c r="I524" t="n">
-        <v>7.053</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
@@ -18682,11 +18482,9 @@
         <v>-15501266.89222453</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
-      </c>
-      <c r="I525" t="n">
-        <v>7.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
@@ -18721,11 +18519,9 @@
         <v>-15135645.87252453</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
-      </c>
-      <c r="I526" t="n">
-        <v>7.057</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
@@ -18760,11 +18556,9 @@
         <v>-15147715.44792453</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
-      </c>
-      <c r="I527" t="n">
-        <v>7.059</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
@@ -18799,11 +18593,9 @@
         <v>-15147305.35342453</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
-      </c>
-      <c r="I528" t="n">
-        <v>7.036</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
@@ -18838,11 +18630,9 @@
         <v>-15147305.35342453</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
-      </c>
-      <c r="I529" t="n">
-        <v>7.037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
@@ -18877,11 +18667,9 @@
         <v>-14775239.16166646</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
-      </c>
-      <c r="I530" t="n">
-        <v>7.037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
@@ -18916,11 +18704,9 @@
         <v>-15229617.71416646</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
-      </c>
-      <c r="I531" t="n">
-        <v>7.038</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
@@ -18955,11 +18741,9 @@
         <v>-14868679.10386646</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
-      </c>
-      <c r="I532" t="n">
-        <v>7.035</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
@@ -18994,11 +18778,9 @@
         <v>-15125413.22366646</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
-      </c>
-      <c r="I533" t="n">
-        <v>7.053</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
@@ -19033,11 +18815,9 @@
         <v>-15169019.26956646</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
-      </c>
-      <c r="I534" t="n">
-        <v>7.043</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
@@ -19072,11 +18852,9 @@
         <v>-15533035.10826646</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
-      </c>
-      <c r="I535" t="n">
-        <v>7.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
@@ -19111,11 +18889,9 @@
         <v>-15533690.35816646</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
-      </c>
-      <c r="I536" t="n">
-        <v>7.038</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
@@ -19150,11 +18926,9 @@
         <v>-15389899.36996646</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
-      </c>
-      <c r="I537" t="n">
-        <v>7.037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
@@ -19189,11 +18963,9 @@
         <v>-15190726.49926646</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
-      </c>
-      <c r="I538" t="n">
-        <v>7.043</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
@@ -19228,11 +19000,9 @@
         <v>-15190726.49926646</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
-      </c>
-      <c r="I539" t="n">
-        <v>7.044</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
@@ -19267,11 +19037,9 @@
         <v>-15190726.49926646</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
-      </c>
-      <c r="I540" t="n">
-        <v>7.044</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
@@ -19306,11 +19074,9 @@
         <v>-15190726.49926646</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
-      </c>
-      <c r="I541" t="n">
-        <v>7.044</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
@@ -19345,11 +19111,9 @@
         <v>-15020632.83116646</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
-      </c>
-      <c r="I542" t="n">
-        <v>7.044</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
@@ -19384,11 +19148,9 @@
         <v>-15020743.73076646</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
-      </c>
-      <c r="I543" t="n">
-        <v>7.048</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
@@ -19423,11 +19185,9 @@
         <v>-14683122.13786646</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
-      </c>
-      <c r="I544" t="n">
-        <v>7.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
@@ -19462,11 +19222,9 @@
         <v>-14905139.18736646</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
-      </c>
-      <c r="I545" t="n">
-        <v>7.047</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
@@ -19501,11 +19259,9 @@
         <v>-14905794.43726646</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
-      </c>
-      <c r="I546" t="n">
-        <v>7.044</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
@@ -19540,11 +19296,9 @@
         <v>-14621824.37586646</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
-      </c>
-      <c r="I547" t="n">
-        <v>7.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
@@ -19579,11 +19333,9 @@
         <v>-14621824.37586646</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
-      </c>
-      <c r="I548" t="n">
-        <v>7.046</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
@@ -19618,11 +19370,9 @@
         <v>-14783018.58716646</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
-      </c>
-      <c r="I549" t="n">
-        <v>7.046</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
@@ -19657,11 +19407,9 @@
         <v>-14611457.55966646</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
-      </c>
-      <c r="I550" t="n">
-        <v>7.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
@@ -19696,11 +19444,9 @@
         <v>-14747460.03026646</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
-      </c>
-      <c r="I551" t="n">
-        <v>7.042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
@@ -19735,11 +19481,9 @@
         <v>-14795912.70946646</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
-      </c>
-      <c r="I552" t="n">
-        <v>7.041</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
@@ -19774,11 +19518,9 @@
         <v>-14602254.67486645</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
-      </c>
-      <c r="I553" t="n">
-        <v>7.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
@@ -19813,11 +19555,9 @@
         <v>-14602254.67486645</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
-      </c>
-      <c r="I554" t="n">
-        <v>7.041</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
@@ -19852,11 +19592,9 @@
         <v>-14773977.43746645</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
-      </c>
-      <c r="I555" t="n">
-        <v>7.041</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
@@ -19891,11 +19629,9 @@
         <v>-14776598.43706645</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
-      </c>
-      <c r="I556" t="n">
-        <v>7.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
@@ -19930,11 +19666,9 @@
         <v>-14740249.05566645</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
-      </c>
-      <c r="I557" t="n">
-        <v>7.039</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
@@ -19969,11 +19703,9 @@
         <v>-14740249.05566645</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
-      </c>
-      <c r="I558" t="n">
-        <v>7.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
@@ -20008,11 +19740,9 @@
         <v>-15070300.16236645</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
-      </c>
-      <c r="I559" t="n">
-        <v>7.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
@@ -20047,11 +19777,9 @@
         <v>-15008028.22136645</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
-      </c>
-      <c r="I560" t="n">
-        <v>7.039</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
@@ -20086,11 +19814,9 @@
         <v>-14808396.33676645</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
-      </c>
-      <c r="I561" t="n">
-        <v>7.043</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
@@ -20125,11 +19851,9 @@
         <v>-14644286.28236645</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
-      </c>
-      <c r="I562" t="n">
-        <v>7.046</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
@@ -20164,11 +19888,9 @@
         <v>-14644248.11586645</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
-      </c>
-      <c r="I563" t="n">
-        <v>7.047</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
@@ -20203,11 +19925,9 @@
         <v>-14359464.23856645</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
-      </c>
-      <c r="I564" t="n">
-        <v>7.048</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
@@ -20242,11 +19962,9 @@
         <v>-14358093.23856645</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
-      </c>
-      <c r="I565" t="n">
-        <v>7.065</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
@@ -20281,11 +19999,9 @@
         <v>-14396893.52836645</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
-      </c>
-      <c r="I566" t="n">
-        <v>7.126</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
@@ -20320,11 +20036,9 @@
         <v>-14396893.52836645</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
-      </c>
-      <c r="I567" t="n">
-        <v>7.062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
@@ -20359,11 +20073,9 @@
         <v>-14251452.63466645</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
-      </c>
-      <c r="I568" t="n">
-        <v>7.062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
@@ -20398,11 +20110,9 @@
         <v>-14254206.63466645</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
-      </c>
-      <c r="I569" t="n">
-        <v>7.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
@@ -20437,11 +20147,9 @@
         <v>-14391594.56506645</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
-      </c>
-      <c r="I570" t="n">
-        <v>7.062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
@@ -20476,11 +20184,9 @@
         <v>-14391519.56506645</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
-      </c>
-      <c r="I571" t="n">
-        <v>7.049</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
@@ -20515,11 +20221,9 @@
         <v>-14162805.79596645</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
-      </c>
-      <c r="I572" t="n">
-        <v>7.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
@@ -20554,11 +20258,9 @@
         <v>-14162305.79596645</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
-      </c>
-      <c r="I573" t="n">
-        <v>7.083</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
@@ -20593,11 +20295,9 @@
         <v>-14162305.79596645</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
-      </c>
-      <c r="I574" t="n">
-        <v>7.109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
@@ -20632,11 +20332,9 @@
         <v>-14367941.42246645</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
-      </c>
-      <c r="I575" t="n">
-        <v>7.109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
@@ -20671,11 +20369,9 @@
         <v>-14702836.82386645</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
-      </c>
-      <c r="I576" t="n">
-        <v>7.105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
@@ -20710,11 +20406,9 @@
         <v>-14703711.61866645</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
-      </c>
-      <c r="I577" t="n">
-        <v>7.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
@@ -20749,11 +20443,9 @@
         <v>-14921027.08246645</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
-      </c>
-      <c r="I578" t="n">
-        <v>7.083</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
@@ -20788,11 +20480,9 @@
         <v>-15015719.61966645</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
-      </c>
-      <c r="I579" t="n">
-        <v>7.053</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
@@ -20827,11 +20517,9 @@
         <v>-14975231.79416645</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
-      </c>
-      <c r="I580" t="n">
-        <v>7.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
@@ -20866,11 +20554,9 @@
         <v>-14636708.97376645</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
-      </c>
-      <c r="I581" t="n">
-        <v>7.053</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
@@ -20905,11 +20591,9 @@
         <v>-14733597.14776645</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
-      </c>
-      <c r="I582" t="n">
-        <v>7.063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
@@ -20944,11 +20628,9 @@
         <v>-14634736.38386645</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
-      </c>
-      <c r="I583" t="n">
-        <v>7.053</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
@@ -20983,11 +20665,9 @@
         <v>-14402195.83126645</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
-      </c>
-      <c r="I584" t="n">
-        <v>7.063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
@@ -21022,11 +20702,9 @@
         <v>-14402195.83126645</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
-      </c>
-      <c r="I585" t="n">
-        <v>7.095</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
@@ -21061,11 +20739,9 @@
         <v>-14087858.17956645</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
-      </c>
-      <c r="I586" t="n">
-        <v>7.095</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
@@ -21100,11 +20776,9 @@
         <v>-14088600.88286645</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
-      </c>
-      <c r="I587" t="n">
-        <v>7.096</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
@@ -21139,11 +20813,9 @@
         <v>-14282743.97656645</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
-      </c>
-      <c r="I588" t="n">
-        <v>7.095</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
@@ -21178,11 +20850,9 @@
         <v>-13830817.28306645</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
-      </c>
-      <c r="I589" t="n">
-        <v>7.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
@@ -21217,11 +20887,9 @@
         <v>-13830817.28306645</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
-      </c>
-      <c r="I590" t="n">
-        <v>7.061</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
@@ -21256,11 +20924,9 @@
         <v>-13590926.60126645</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
-      </c>
-      <c r="I591" t="n">
-        <v>7.061</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
@@ -21295,11 +20961,9 @@
         <v>-13590855.60126645</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
-      </c>
-      <c r="I592" t="n">
-        <v>7.076</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
@@ -21334,11 +20998,9 @@
         <v>-13883127.52496645</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
-      </c>
-      <c r="I593" t="n">
-        <v>7.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
@@ -21373,11 +21035,9 @@
         <v>-14229296.73196645</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
-      </c>
-      <c r="I594" t="n">
-        <v>7.081</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
@@ -21412,11 +21072,9 @@
         <v>-14449922.37786645</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
-      </c>
-      <c r="I595" t="n">
-        <v>7.079</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
@@ -21451,11 +21109,9 @@
         <v>-14449922.37786645</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
-      </c>
-      <c r="I596" t="n">
-        <v>7.066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
@@ -21490,11 +21146,9 @@
         <v>-14309721.44906645</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
-      </c>
-      <c r="I597" t="n">
-        <v>7.066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
@@ -21529,11 +21183,9 @@
         <v>-14309459.44906645</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
-      </c>
-      <c r="I598" t="n">
-        <v>7.072</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
@@ -21568,11 +21220,9 @@
         <v>-14592212.33896645</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
-      </c>
-      <c r="I599" t="n">
-        <v>7.079</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
@@ -21607,11 +21257,9 @@
         <v>-14585212.33896645</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
-      </c>
-      <c r="I600" t="n">
-        <v>7.074</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
@@ -21646,11 +21294,9 @@
         <v>-14792589.93266645</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
-      </c>
-      <c r="I601" t="n">
-        <v>7.099</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
@@ -21685,11 +21331,9 @@
         <v>-15053067.68286645</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
-      </c>
-      <c r="I602" t="n">
-        <v>7.094</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
@@ -21724,11 +21368,9 @@
         <v>-14750896.11876645</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
-      </c>
-      <c r="I603" t="n">
-        <v>7.091</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
@@ -21763,11 +21405,9 @@
         <v>-14750896.11876645</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
-      </c>
-      <c r="I604" t="n">
-        <v>7.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
@@ -21802,11 +21442,9 @@
         <v>-14750896.11876645</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
-      </c>
-      <c r="I605" t="n">
-        <v>7.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
@@ -21841,11 +21479,9 @@
         <v>-14056883.28605558</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
-      </c>
-      <c r="I606" t="n">
-        <v>7.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
@@ -21880,11 +21516,9 @@
         <v>-14056883.28605558</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
-      </c>
-      <c r="I607" t="n">
-        <v>7.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
@@ -21919,11 +21553,9 @@
         <v>-14345017.35985558</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
-      </c>
-      <c r="I608" t="n">
-        <v>7.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
@@ -21958,11 +21590,9 @@
         <v>-14080040.5017164</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
-      </c>
-      <c r="I609" t="n">
-        <v>7.116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
@@ -21997,11 +21627,9 @@
         <v>-10874372.88105085</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
-      </c>
-      <c r="I610" t="n">
-        <v>7.139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
@@ -25551,11 +25179,9 @@
         <v>-17216326.17995998</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
-      </c>
-      <c r="I706" t="n">
-        <v>7.197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr">
         <is>
@@ -25590,11 +25216,9 @@
         <v>-17169165.44065998</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
-      </c>
-      <c r="I707" t="n">
-        <v>7.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr">
         <is>
@@ -25777,11 +25401,9 @@
         <v>-17144141.87386645</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
-      </c>
-      <c r="I712" t="n">
-        <v>7.225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
@@ -25816,11 +25438,9 @@
         <v>-17502446.85976645</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
-      </c>
-      <c r="I713" t="n">
-        <v>7.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
@@ -25855,11 +25475,9 @@
         <v>-17499946.85976645</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
-      </c>
-      <c r="I714" t="n">
-        <v>7.225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
@@ -25894,11 +25512,9 @@
         <v>-17249156.82836645</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
-      </c>
-      <c r="I715" t="n">
-        <v>7.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
@@ -25933,11 +25549,9 @@
         <v>-17248045.82836645</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
-      </c>
-      <c r="I716" t="n">
-        <v>7.231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
@@ -25972,11 +25586,9 @@
         <v>-17248146.58736645</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
-      </c>
-      <c r="I717" t="n">
-        <v>7.238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
@@ -26011,11 +25623,9 @@
         <v>-17390693.88246645</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
-      </c>
-      <c r="I718" t="n">
-        <v>7.231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
@@ -26050,11 +25660,9 @@
         <v>-17390693.88246645</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
-      </c>
-      <c r="I719" t="n">
-        <v>7.225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
@@ -26089,11 +25697,9 @@
         <v>-17730573.93556645</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
-      </c>
-      <c r="I720" t="n">
-        <v>7.225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
@@ -26128,11 +25734,9 @@
         <v>-17730573.93556645</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
-      </c>
-      <c r="I721" t="n">
-        <v>7.201</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
@@ -26167,11 +25771,9 @@
         <v>-17730503.93556645</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
-      </c>
-      <c r="I722" t="n">
-        <v>7.201</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
@@ -26243,11 +25845,9 @@
         <v>-16624976.83126645</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
-      </c>
-      <c r="I724" t="n">
-        <v>7.225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
@@ -26282,11 +25882,9 @@
         <v>-16333128.87606645</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
-      </c>
-      <c r="I725" t="n">
-        <v>7.234</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
@@ -26321,11 +25919,9 @@
         <v>-16333628.87606645</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
-      </c>
-      <c r="I726" t="n">
-        <v>7.236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
@@ -26508,11 +26104,9 @@
         <v>-16299647.17966645</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
-      </c>
-      <c r="I731" t="n">
-        <v>7.236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
@@ -26547,11 +26141,9 @@
         <v>-16297946.75626645</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
-      </c>
-      <c r="I732" t="n">
-        <v>7.236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
@@ -26586,11 +26178,9 @@
         <v>-16297946.75626645</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
-      </c>
-      <c r="I733" t="n">
-        <v>7.237</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
@@ -26625,11 +26215,9 @@
         <v>-16102383.76183087</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
-      </c>
-      <c r="I734" t="n">
-        <v>7.237</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
@@ -26664,11 +26252,9 @@
         <v>-15934750.33823087</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
-      </c>
-      <c r="I735" t="n">
-        <v>7.239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
@@ -26703,11 +26289,9 @@
         <v>-15929038.87073087</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
-      </c>
-      <c r="I736" t="n">
-        <v>7.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
@@ -26742,11 +26326,9 @@
         <v>-15780120.55053087</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
-      </c>
-      <c r="I737" t="n">
-        <v>7.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr">
         <is>
@@ -26781,11 +26363,9 @@
         <v>-16185611.97223087</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
-      </c>
-      <c r="I738" t="n">
-        <v>7.285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
@@ -26820,11 +26400,9 @@
         <v>-15847304.76553087</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
-      </c>
-      <c r="I739" t="n">
-        <v>7.267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
@@ -26859,11 +26437,9 @@
         <v>-16154847.91753087</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
-      </c>
-      <c r="I740" t="n">
-        <v>7.285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
@@ -26898,11 +26474,9 @@
         <v>-16154347.91753087</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
-      </c>
-      <c r="I741" t="n">
-        <v>7.284</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
@@ -26937,11 +26511,9 @@
         <v>-16154347.91753087</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
-      </c>
-      <c r="I742" t="n">
-        <v>7.285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr">
         <is>
@@ -26976,11 +26548,9 @@
         <v>-15841162.71603087</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
-      </c>
-      <c r="I743" t="n">
-        <v>7.285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr">
         <is>
@@ -27015,11 +26585,9 @@
         <v>-15893209.86003087</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
-      </c>
-      <c r="I744" t="n">
-        <v>7.286</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
@@ -27054,11 +26622,9 @@
         <v>-15650501.00203087</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
-      </c>
-      <c r="I745" t="n">
-        <v>7.285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
@@ -27093,11 +26659,9 @@
         <v>-15591807.40363087</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
-      </c>
-      <c r="I746" t="n">
-        <v>7.293</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
@@ -27132,11 +26696,9 @@
         <v>-15185129.09203087</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
-      </c>
-      <c r="I747" t="n">
-        <v>7.298</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
@@ -27171,11 +26733,9 @@
         <v>-15185129.09203087</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
-      </c>
-      <c r="I748" t="n">
-        <v>7.299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
@@ -27210,11 +26770,9 @@
         <v>-15008389.47403087</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
-      </c>
-      <c r="I749" t="n">
-        <v>7.299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr">
         <is>
@@ -31482,6 +31040,6 @@
       <c r="M864" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest XSR.xlsx
+++ b/BackTest/2020-01-14 BackTest XSR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -979,7 +979,7 @@
         <v>-369287.0581703153</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-369887.0581703153</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-369887.0581703153</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-829430.9092703153</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-923816.2529703153</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-1106559.723770315</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-926929.7137703153</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1189957.071970315</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1500476.098270315</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1362400.642870315</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-1362400.642870315</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-1319290.469970315</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-1319290.469970315</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-1920397.972870315</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-1920397.972870315</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-2252062.327370315</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-2045728.426170315</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-1888063.145870315</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-1888063.145870315</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-1718815.161070315</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1719015.161070315</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-1434293.252370315</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-1433980.568270315</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1134192.548470315</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-1083279.099770315</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-946397.2014703152</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-946025.3974703152</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-809413.1501703153</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-808758.9706703153</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1116289.872270315</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1116224.872270315</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-1336511.879570315</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-1394819.818070315</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1394819.818070315</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1160797.674470315</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1160797.674470315</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-1346432.833970315</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1408068.740270315</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1237064.358070315</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1244913.327370315</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1081252.278970315</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1081252.278970315</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-789675.0201703154</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-789383.2573703154</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-563143.2029703154</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-748806.1842703153</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-747329.0527703153</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-928179.1058703153</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-1262537.898270315</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-1225514.213143967</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-1054125.135343967</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-823321.1026439668</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-1003180.349943967</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-855645.8342439668</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-855645.8342439668</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-1051038.516743967</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-1050938.516743967</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-1050938.516743967</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-1050938.516743967</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-773394.0550439669</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-1033224.403943967</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-711376.5881439669</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-406581.0691439669</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-930883.6389439669</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-720066.4503439669</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-869941.8459439669</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-1001053.799143967</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-781342.8565439668</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-781342.8565439668</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-914333.1722439668</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-914333.1722439668</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-1753838.755736799</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-1621989.372536798</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-1621989.372536798</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-1494972.433736798</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-1540342.998436798</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-1865060.178036798</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-2386505.798036798</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-2386505.798036798</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-2597631.778636798</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-2597631.778636798</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-2599362.759436798</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-2599362.759436798</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-2836090.209936798</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-3567492.517536798</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-2855025.139736798</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-2893932.382236798</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-2597823.853636798</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-2597823.853636798</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-2597405.567936799</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-2857039.727436799</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-2675400.872936799</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-2898588.856236799</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-2936633.499236799</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-2703741.956436799</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-2997710.736636799</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-3010912.760036799</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-3151930.454036799</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-6038232.708036799</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-5689418.387036799</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-5390097.767236799</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-5717350.883936799</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-5717176.376436799</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-5717176.376436799</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-5503463.492136799</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-5502921.742236799</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-5220695.492736799</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-5548862.674336798</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-5575081.969836798</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-5578670.996536799</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-6185403.541736798</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-6010262.586836798</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-6009845.780236798</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-6280729.488036798</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-6048499.820236798</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-6047916.014936798</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-5994136.627136799</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-5612762.367736799</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-5657434.938736799</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-5656856.2022368</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-5540595.545136799</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-5923890.865436799</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-5966834.934936799</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-6357591.422836798</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -11374,11 +11374,17 @@
         <v>-20283814.4079606</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>6.856</v>
+      </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11411,7 +11417,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11444,7 +11454,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11473,15 +11487,13 @@
         <v>-19885323.3757606</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>6.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L336" t="n">
@@ -11512,11 +11524,9 @@
         <v>-19031223.8984606</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>6.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
@@ -11551,11 +11561,9 @@
         <v>-19436818.8305606</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>6.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
@@ -11590,11 +11598,9 @@
         <v>-19233403.2386606</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>6.873</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
@@ -11629,11 +11635,9 @@
         <v>-18771441.42516061</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>6.909</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
@@ -11668,11 +11672,9 @@
         <v>-18651367.56556061</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>6.928</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
@@ -11707,11 +11709,9 @@
         <v>-18695571.99496061</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>6.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
@@ -11783,11 +11783,9 @@
         <v>-18695571.99496061</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>6.917</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
@@ -13413,9 +13411,11 @@
         <v>-16316065.39502065</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>6.998</v>
+      </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
@@ -13450,9 +13450,11 @@
         <v>-16316065.39502065</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>7.032</v>
+      </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
@@ -13487,9 +13489,11 @@
         <v>-16052838.50376828</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>7.032</v>
+      </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
@@ -13524,9 +13528,11 @@
         <v>-15839925.14856622</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>7.043</v>
+      </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
@@ -13561,9 +13567,11 @@
         <v>-15839925.14856622</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>7.088</v>
+      </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
@@ -13672,9 +13680,11 @@
         <v>-15794755.82506622</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>7</v>
+      </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
@@ -13709,9 +13719,11 @@
         <v>-15785774.88366622</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>7.011</v>
+      </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
@@ -13746,9 +13758,11 @@
         <v>-15507690.36586622</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>7.012</v>
+      </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
@@ -13783,9 +13797,11 @@
         <v>-15725115.61226622</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>7.079</v>
+      </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
@@ -13820,9 +13836,11 @@
         <v>-16143233.15546622</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>7.045</v>
+      </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
@@ -13857,9 +13875,11 @@
         <v>-15889230.58046622</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>7.012</v>
+      </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
@@ -13894,9 +13914,11 @@
         <v>-15889230.58046622</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>7.029</v>
+      </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
@@ -13931,9 +13953,11 @@
         <v>-15860970.70996622</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>7.029</v>
+      </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
@@ -13968,9 +13992,11 @@
         <v>-15560978.03676622</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>7.04</v>
+      </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
@@ -14153,9 +14179,11 @@
         <v>-15491544.05663121</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>7.003</v>
+      </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
@@ -14190,9 +14218,11 @@
         <v>-15361228.42163121</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>7.032</v>
+      </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
@@ -14227,9 +14257,11 @@
         <v>-15386903.14733121</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>7.046</v>
+      </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
@@ -14301,9 +14333,11 @@
         <v>-15624460.99723121</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>7.039</v>
+      </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
@@ -14338,9 +14372,11 @@
         <v>-15359084.97613121</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>7.032</v>
+      </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
@@ -14375,9 +14411,11 @@
         <v>-14720672.38943121</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>7.033</v>
+      </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
@@ -14449,9 +14487,11 @@
         <v>-14377236.12963121</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>7.033</v>
+      </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
@@ -18926,9 +18966,11 @@
         <v>-15389899.36996646</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>7.037</v>
+      </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
@@ -19000,9 +19042,11 @@
         <v>-15190726.49926646</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>7.044</v>
+      </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
@@ -19148,9 +19192,11 @@
         <v>-15020743.73076646</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>7.048</v>
+      </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
@@ -19185,9 +19231,11 @@
         <v>-14683122.13786646</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I544" t="n">
+        <v>7.04</v>
+      </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
@@ -19296,9 +19344,11 @@
         <v>-14621824.37586646</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>7.04</v>
+      </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
@@ -19407,9 +19457,11 @@
         <v>-14611457.55966646</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>7.04</v>
+      </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
@@ -19444,9 +19496,11 @@
         <v>-14747460.03026646</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>7.042</v>
+      </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
@@ -19481,9 +19535,11 @@
         <v>-14795912.70946646</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>7.041</v>
+      </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
@@ -19518,9 +19574,11 @@
         <v>-14602254.67486645</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>7.04</v>
+      </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
@@ -19555,9 +19613,11 @@
         <v>-14602254.67486645</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>7.041</v>
+      </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
@@ -19592,9 +19652,11 @@
         <v>-14773977.43746645</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>7.041</v>
+      </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
@@ -19629,9 +19691,11 @@
         <v>-14776598.43706645</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>7.04</v>
+      </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
@@ -19666,9 +19730,11 @@
         <v>-14740249.05566645</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>7.039</v>
+      </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
@@ -19703,9 +19769,11 @@
         <v>-14740249.05566645</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>7.04</v>
+      </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
@@ -19740,9 +19808,11 @@
         <v>-15070300.16236645</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>7.04</v>
+      </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
@@ -19777,9 +19847,11 @@
         <v>-15008028.22136645</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>7.039</v>
+      </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
@@ -19814,9 +19886,11 @@
         <v>-14808396.33676645</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I561" t="n">
+        <v>7.043</v>
+      </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
@@ -19851,9 +19925,11 @@
         <v>-14644286.28236645</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>7.046</v>
+      </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
@@ -19888,9 +19964,11 @@
         <v>-14644248.11586645</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>7.047</v>
+      </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
@@ -19925,9 +20003,11 @@
         <v>-14359464.23856645</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I564" t="n">
+        <v>7.048</v>
+      </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
@@ -19962,9 +20042,11 @@
         <v>-14358093.23856645</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>7.065</v>
+      </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
@@ -20036,9 +20118,11 @@
         <v>-14396893.52836645</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>7.062</v>
+      </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
@@ -21664,18 +21748,16 @@
         <v>-11089248.85535085</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L611" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L611" t="inlineStr"/>
       <c r="M611" t="inlineStr"/>
     </row>
     <row r="612">
@@ -21701,15 +21783,11 @@
         <v>-11159891.44325085</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21738,15 +21816,11 @@
         <v>-10626061.67045085</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21775,15 +21849,11 @@
         <v>-12991114.33095085</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21812,15 +21882,11 @@
         <v>-12991045.33095085</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21849,15 +21915,11 @@
         <v>-13792374.54745084</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21890,11 +21952,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21923,15 +21981,11 @@
         <v>-13853688.69456566</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21960,15 +22014,11 @@
         <v>-13704038.49766566</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21997,15 +22047,11 @@
         <v>-13704295.37606566</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -22038,11 +22084,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -22075,11 +22117,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22112,11 +22150,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22149,11 +22183,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22186,11 +22216,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22223,11 +22249,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22260,11 +22282,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22297,11 +22315,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22334,11 +22348,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22371,11 +22381,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22408,11 +22414,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22445,11 +22447,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22482,11 +22480,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22515,15 +22509,11 @@
         <v>-14566932.49735998</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22552,15 +22542,11 @@
         <v>-14790273.31995998</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22589,15 +22575,11 @@
         <v>-15028283.61445998</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22626,15 +22608,11 @@
         <v>-15027981.56635998</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22663,15 +22641,11 @@
         <v>-15271069.56515998</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22700,15 +22674,11 @@
         <v>-15271000.56515998</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22737,15 +22707,11 @@
         <v>-15591404.60345998</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22774,15 +22740,11 @@
         <v>-15824480.22485998</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22811,15 +22773,11 @@
         <v>-16103618.28885998</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22848,15 +22806,11 @@
         <v>-16103618.28885998</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22885,15 +22839,11 @@
         <v>-15771775.56615998</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22926,11 +22876,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22959,15 +22905,11 @@
         <v>-15461811.46595998</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22996,15 +22938,11 @@
         <v>-15462063.74355998</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -23033,15 +22971,11 @@
         <v>-15609377.09645998</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -23070,15 +23004,11 @@
         <v>-15609377.09645998</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23107,15 +23037,11 @@
         <v>-15641309.94315998</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23144,15 +23070,11 @@
         <v>-15912443.80025998</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23181,15 +23103,11 @@
         <v>-15912373.80025998</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23218,15 +23136,11 @@
         <v>-16109540.28215998</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23255,15 +23169,11 @@
         <v>-16109540.28215998</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23292,15 +23202,11 @@
         <v>-16344585.27315998</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23333,11 +23239,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23370,11 +23272,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23407,11 +23305,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23444,11 +23338,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23481,11 +23371,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23518,11 +23404,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23555,11 +23437,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23592,11 +23470,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23629,11 +23503,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23666,11 +23536,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23703,11 +23569,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23740,11 +23602,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23777,11 +23635,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23814,11 +23668,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23851,11 +23701,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23888,11 +23734,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23925,11 +23767,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23962,11 +23800,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23999,11 +23833,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -24036,11 +23866,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -24073,11 +23899,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -24110,11 +23932,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -24147,11 +23965,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -24184,11 +23998,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -24221,11 +24031,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24258,11 +24064,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24295,11 +24097,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24332,11 +24130,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24369,11 +24163,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24402,15 +24192,15 @@
         <v>-17342761.00845998</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
-      </c>
-      <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I685" t="n">
+        <v>7.184</v>
+      </c>
+      <c r="J685" t="n">
+        <v>7.184</v>
+      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24439,13 +24229,17 @@
         <v>-18142761.00845998</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
-      </c>
-      <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I686" t="n">
+        <v>7.174</v>
+      </c>
+      <c r="J686" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K686" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L686" t="n">
@@ -24476,10 +24270,14 @@
         <v>-18004004.23505998</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
-      </c>
-      <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I687" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="J687" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24513,10 +24311,14 @@
         <v>-18195660.43655998</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I688" t="n">
+        <v>7.186</v>
+      </c>
+      <c r="J688" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24550,10 +24352,14 @@
         <v>-17888244.87555998</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
-      </c>
-      <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I689" t="n">
+        <v>7.166</v>
+      </c>
+      <c r="J689" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24587,10 +24393,14 @@
         <v>-17652926.79575998</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
-      </c>
-      <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I690" t="n">
+        <v>7.171</v>
+      </c>
+      <c r="J690" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24624,10 +24434,14 @@
         <v>-17651692.79575998</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I691" t="n">
+        <v>7.173</v>
+      </c>
+      <c r="J691" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24661,10 +24475,14 @@
         <v>-17651692.79575998</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
-      </c>
-      <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I692" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="J692" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24698,10 +24516,14 @@
         <v>-17945207.98545998</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I693" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="J693" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24735,10 +24557,14 @@
         <v>-17932405.03465998</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I694" t="n">
+        <v>7.179</v>
+      </c>
+      <c r="J694" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24772,10 +24598,14 @@
         <v>-18100309.60255998</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I695" t="n">
+        <v>7.191</v>
+      </c>
+      <c r="J695" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24809,10 +24639,14 @@
         <v>-18372358.46905998</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
-      </c>
-      <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I696" t="n">
+        <v>7.184</v>
+      </c>
+      <c r="J696" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24846,10 +24680,14 @@
         <v>-18372358.46905998</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I697" t="n">
+        <v>7.182</v>
+      </c>
+      <c r="J697" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24883,10 +24721,14 @@
         <v>-18036332.07785998</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>7.182</v>
+      </c>
+      <c r="J698" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24920,10 +24762,14 @@
         <v>-17731568.67625998</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>7.184</v>
+      </c>
+      <c r="J699" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24957,10 +24803,14 @@
         <v>-17731993.82405998</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>7.187</v>
+      </c>
+      <c r="J700" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24994,10 +24844,14 @@
         <v>-17731993.82405998</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I701" t="n">
+        <v>7.184</v>
+      </c>
+      <c r="J701" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25031,10 +24885,14 @@
         <v>-17731993.82405998</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>7.184</v>
+      </c>
+      <c r="J702" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25068,10 +24926,14 @@
         <v>-17557746.85805998</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>7.184</v>
+      </c>
+      <c r="J703" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25105,10 +24967,14 @@
         <v>-17517993.48855998</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>7.185</v>
+      </c>
+      <c r="J704" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25142,10 +25008,14 @@
         <v>-17225560.17995998</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I705" t="n">
+        <v>7.191</v>
+      </c>
+      <c r="J705" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25179,10 +25049,14 @@
         <v>-17216326.17995998</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>7.197</v>
+      </c>
+      <c r="J706" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25216,10 +25090,14 @@
         <v>-17169165.44065998</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="J707" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25253,10 +25131,14 @@
         <v>-17218827.51266645</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>7.221</v>
+      </c>
+      <c r="J708" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25290,10 +25172,14 @@
         <v>-16866525.11906645</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="J709" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25327,10 +25213,14 @@
         <v>-16860525.11906645</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>7.218</v>
+      </c>
+      <c r="J710" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25364,10 +25254,14 @@
         <v>-17145375.87386645</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
-      </c>
-      <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I711" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="J711" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25401,10 +25295,14 @@
         <v>-17144141.87386645</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I712" t="n">
+        <v>7.225</v>
+      </c>
+      <c r="J712" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25438,10 +25336,14 @@
         <v>-17502446.85976645</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
-      </c>
-      <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I713" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="J713" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25475,10 +25377,14 @@
         <v>-17499946.85976645</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
-      </c>
-      <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I714" t="n">
+        <v>7.225</v>
+      </c>
+      <c r="J714" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25512,10 +25418,14 @@
         <v>-17249156.82836645</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I715" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="J715" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25549,10 +25459,14 @@
         <v>-17248045.82836645</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>7.231</v>
+      </c>
+      <c r="J716" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25586,10 +25500,14 @@
         <v>-17248146.58736645</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>7.238</v>
+      </c>
+      <c r="J717" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25623,10 +25541,14 @@
         <v>-17390693.88246645</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I718" t="n">
+        <v>7.231</v>
+      </c>
+      <c r="J718" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25660,10 +25582,14 @@
         <v>-17390693.88246645</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>7.225</v>
+      </c>
+      <c r="J719" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25697,10 +25623,14 @@
         <v>-17730573.93556645</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I720" t="n">
+        <v>7.225</v>
+      </c>
+      <c r="J720" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25734,10 +25664,14 @@
         <v>-17730573.93556645</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I721" t="n">
+        <v>7.201</v>
+      </c>
+      <c r="J721" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25771,10 +25705,14 @@
         <v>-17730503.93556645</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I722" t="n">
+        <v>7.201</v>
+      </c>
+      <c r="J722" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25808,10 +25746,14 @@
         <v>-17454377.71136645</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
-      </c>
-      <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I723" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="J723" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25845,10 +25787,14 @@
         <v>-16624976.83126645</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I724" t="n">
+        <v>7.225</v>
+      </c>
+      <c r="J724" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25882,10 +25828,14 @@
         <v>-16333128.87606645</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I725" t="n">
+        <v>7.234</v>
+      </c>
+      <c r="J725" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25919,10 +25869,14 @@
         <v>-16333628.87606645</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
-      </c>
-      <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I726" t="n">
+        <v>7.236</v>
+      </c>
+      <c r="J726" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25956,10 +25910,14 @@
         <v>-16076135.49366645</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
-      </c>
-      <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I727" t="n">
+        <v>7.234</v>
+      </c>
+      <c r="J727" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25993,10 +25951,14 @@
         <v>-16076135.49366645</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I728" t="n">
+        <v>7.237</v>
+      </c>
+      <c r="J728" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26030,10 +25992,14 @@
         <v>-16299647.17966645</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>7.237</v>
+      </c>
+      <c r="J729" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26067,10 +26033,14 @@
         <v>-16299647.17966645</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
-      </c>
-      <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I730" t="n">
+        <v>7.236</v>
+      </c>
+      <c r="J730" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26104,10 +26074,14 @@
         <v>-16299647.17966645</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I731" t="n">
+        <v>7.236</v>
+      </c>
+      <c r="J731" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26141,10 +26115,14 @@
         <v>-16297946.75626645</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I732" t="n">
+        <v>7.236</v>
+      </c>
+      <c r="J732" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26178,10 +26156,14 @@
         <v>-16297946.75626645</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I733" t="n">
+        <v>7.237</v>
+      </c>
+      <c r="J733" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26215,10 +26197,14 @@
         <v>-16102383.76183087</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I734" t="n">
+        <v>7.237</v>
+      </c>
+      <c r="J734" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26252,10 +26238,14 @@
         <v>-15934750.33823087</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>7.239</v>
+      </c>
+      <c r="J735" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26289,10 +26279,14 @@
         <v>-15929038.87073087</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="J736" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26326,10 +26320,14 @@
         <v>-15780120.55053087</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="J737" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26363,17 +26361,19 @@
         <v>-16185611.97223087</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>7.184</v>
+      </c>
       <c r="K738" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L738" t="n">
-        <v>1</v>
+        <v>1.006553452115813</v>
       </c>
       <c r="M738" t="inlineStr"/>
     </row>
@@ -26400,15 +26400,11 @@
         <v>-15847304.76553087</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -26437,15 +26433,11 @@
         <v>-16154847.91753087</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -26474,15 +26466,11 @@
         <v>-16154347.91753087</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -26511,15 +26499,11 @@
         <v>-16154347.91753087</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -26548,15 +26532,11 @@
         <v>-15841162.71603087</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -26585,15 +26565,11 @@
         <v>-15893209.86003087</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -26622,15 +26598,11 @@
         <v>-15650501.00203087</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -26659,15 +26631,11 @@
         <v>-15591807.40363087</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -26696,15 +26664,11 @@
         <v>-15185129.09203087</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -26733,15 +26697,11 @@
         <v>-15185129.09203087</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -26770,15 +26730,11 @@
         <v>-15008389.47403087</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26807,15 +26763,11 @@
         <v>-14425917.9484402</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26844,15 +26796,11 @@
         <v>-13744580.0023402</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26881,15 +26829,11 @@
         <v>-13179135.0710402</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26918,15 +26862,11 @@
         <v>-13315851.3046402</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26955,15 +26895,11 @@
         <v>-13314342.9678402</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26996,11 +26932,7 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -27033,11 +26965,7 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -27070,11 +26998,7 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -27107,11 +27031,7 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -27144,11 +27064,7 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -27181,11 +27097,7 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -27218,11 +27130,7 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -27255,11 +27163,7 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -27292,11 +27196,7 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -27329,11 +27229,7 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -27366,11 +27262,7 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -27403,11 +27295,7 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -27440,11 +27328,7 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -27477,11 +27361,7 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -27514,11 +27394,7 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -27551,11 +27427,7 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -27588,11 +27460,7 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -27625,11 +27493,7 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -27662,11 +27526,7 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -27699,11 +27559,7 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -27736,11 +27592,7 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -27773,11 +27625,7 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -27810,11 +27658,7 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -27847,11 +27691,7 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -27884,11 +27724,7 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -27917,15 +27753,11 @@
         <v>-13171426.1437402</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -27954,15 +27786,11 @@
         <v>-13171356.1437402</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -27991,15 +27819,11 @@
         <v>-13414373.3609402</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -28032,11 +27856,7 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -28069,11 +27889,7 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -28106,11 +27922,7 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -28143,11 +27955,7 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -28180,11 +27988,7 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -28217,11 +28021,7 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -28254,11 +28054,7 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -28291,11 +28087,7 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -28328,11 +28120,7 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -28365,11 +28153,7 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -28402,11 +28186,7 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -28439,11 +28219,7 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -28472,15 +28248,11 @@
         <v>-14051054.4790402</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -28509,15 +28281,11 @@
         <v>-14335295.0349402</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K796" t="inlineStr"/>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -28550,11 +28318,7 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K797" t="inlineStr"/>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -28587,11 +28351,7 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -28624,11 +28384,7 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -28661,11 +28417,7 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K800" t="inlineStr"/>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -28698,11 +28450,7 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K801" t="inlineStr"/>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -28735,11 +28483,7 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K802" t="inlineStr"/>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -28772,11 +28516,7 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K803" t="inlineStr"/>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -28809,11 +28549,7 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K804" t="inlineStr"/>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -28846,11 +28582,7 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K805" t="inlineStr"/>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -28883,11 +28615,7 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K806" t="inlineStr"/>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -28920,11 +28648,7 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K807" t="inlineStr"/>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -28957,11 +28681,7 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K808" t="inlineStr"/>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -28994,11 +28714,7 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K809" t="inlineStr"/>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -29031,11 +28747,7 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K810" t="inlineStr"/>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -29068,11 +28780,7 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K811" t="inlineStr"/>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -29105,11 +28813,7 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K812" t="inlineStr"/>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -29142,11 +28846,7 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K813" t="inlineStr"/>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -29179,11 +28879,7 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K814" t="inlineStr"/>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -29216,11 +28912,7 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K815" t="inlineStr"/>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -29253,11 +28945,7 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K816" t="inlineStr"/>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -29290,11 +28978,7 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K817" t="inlineStr"/>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -29327,11 +29011,7 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K818" t="inlineStr"/>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -29364,11 +29044,7 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K819" t="inlineStr"/>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -29401,11 +29077,7 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K820" t="inlineStr"/>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -29438,11 +29110,7 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K821" t="inlineStr"/>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -29475,11 +29143,7 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K822" t="inlineStr"/>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -29512,11 +29176,7 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K823" t="inlineStr"/>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -29549,11 +29209,7 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K824" t="inlineStr"/>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -29582,15 +29238,11 @@
         <v>-13579535.90004021</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K825" t="inlineStr"/>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -29619,15 +29271,11 @@
         <v>-13452571.58104021</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K826" t="inlineStr"/>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -29660,11 +29308,7 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K827" t="inlineStr"/>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -29697,11 +29341,7 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K828" t="inlineStr"/>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -29734,11 +29374,7 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K829" t="inlineStr"/>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -29771,11 +29407,7 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K830" t="inlineStr"/>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -29808,11 +29440,7 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K831" t="inlineStr"/>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -29845,11 +29473,7 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K832" t="inlineStr"/>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -29882,11 +29506,7 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K833" t="inlineStr"/>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -29919,11 +29539,7 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K834" t="inlineStr"/>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -29956,11 +29572,7 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K835" t="inlineStr"/>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -29993,11 +29605,7 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K836" t="inlineStr"/>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -30030,11 +29638,7 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K837" t="inlineStr"/>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -30067,11 +29671,7 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K838" t="inlineStr"/>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -30104,11 +29704,7 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K839" t="inlineStr"/>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -30141,11 +29737,7 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K840" t="inlineStr"/>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -30178,11 +29770,7 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K841" t="inlineStr"/>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -30215,11 +29803,7 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K842" t="inlineStr"/>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -30252,11 +29836,7 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K843" t="inlineStr"/>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -30289,11 +29869,7 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K844" t="inlineStr"/>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -30326,11 +29902,7 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K845" t="inlineStr"/>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -30363,11 +29935,7 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K846" t="inlineStr"/>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -30400,11 +29968,7 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -30437,11 +30001,7 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K848" t="inlineStr"/>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -30474,11 +30034,7 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K849" t="inlineStr"/>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -30511,11 +30067,7 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K850" t="inlineStr"/>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -30548,11 +30100,7 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K851" t="inlineStr"/>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -30585,11 +30133,7 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K852" t="inlineStr"/>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -30622,11 +30166,7 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K853" t="inlineStr"/>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -30659,11 +30199,7 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K854" t="inlineStr"/>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -30696,11 +30232,7 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K855" t="inlineStr"/>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -30733,11 +30265,7 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K856" t="inlineStr"/>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -30770,11 +30298,7 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K857" t="inlineStr"/>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -30807,11 +30331,7 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K858" t="inlineStr"/>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -30844,11 +30364,7 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K859" t="inlineStr"/>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -30881,11 +30397,7 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K860" t="inlineStr"/>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -30918,11 +30430,7 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K861" t="inlineStr"/>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -30955,11 +30463,7 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K862" t="inlineStr"/>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -30992,11 +30496,7 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K863" t="inlineStr"/>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -31029,17 +30529,13 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K864" t="inlineStr"/>
       <c r="L864" t="n">
         <v>1</v>
       </c>
       <c r="M864" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest XSR.xlsx
+++ b/BackTest/2020-01-14 BackTest XSR.xlsx
@@ -451,7 +451,7 @@
         <v>-639978.5902703153</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-639839.5902703153</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-386344.3238703153</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-385744.3238703153</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-385880.7084703153</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-378580.7084703153</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-616515.3177703153</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-441034.9299703153</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-769649.4178703153</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-598382.2267703153</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-573279.1752703153</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-289964.2533703152</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-432756.1748703152</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-432485.9572703153</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-418556.7325703152</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-536075.2592703153</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-369287.0581703153</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-369887.0581703153</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-369887.0581703153</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-369887.0581703153</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-829430.9092703153</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-829730.9092703153</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-923816.2529703153</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-1326212.362870315</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-1622441.251470315</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-1795787.096370315</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-1462688.660570315</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-1202640.864070315</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-1202640.864070315</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-905252.6096703152</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-1116108.385970315</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-946397.2014703152</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-946025.3974703152</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-809413.1501703153</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-808758.9706703153</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1116289.872270315</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1116224.872270315</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-1336511.879570315</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-1394819.818070315</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1394819.818070315</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1160797.674470315</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1160797.674470315</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-1346432.833970315</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1408068.740270315</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1237064.358070315</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1244913.327370315</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1081252.278970315</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1081252.278970315</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-789675.0201703154</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-789383.2573703154</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-563143.2029703154</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-748806.1842703153</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-747329.0527703153</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-928179.1058703153</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-1262344.517570315</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-1262750.667370315</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-1262537.898270315</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-1262537.898270315</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-693724.3271439666</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-401744.9730439666</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-640629.5781439666</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-307581.0538439666</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-616601.3739439666</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-946087.2534439666</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-1185765.063843967</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-1023458.905143967</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-1248366.066043967</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-953959.1663439667</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-1212523.888443967</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-1225514.213143967</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-1054125.135343967</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-823321.1026439668</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-1003180.349943967</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-855645.8342439668</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-855645.8342439668</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-1051038.516743967</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-1050938.516743967</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-1050938.516743967</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-1050938.516743967</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-773394.0550439669</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-1033224.403943967</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-711376.5881439669</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-406581.0691439669</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-406581.0691439669</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-413273.6749439669</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-74080.24614396691</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>1117669.312456033</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>1117669.312456033</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>937273.4884560332</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>769381.8903560331</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>893756.1494560331</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>660738.8332560331</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>660738.8332560331</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>660738.8332560331</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>660051.9763560331</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-805902.2518439669</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-601840.0604439669</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-930883.6389439669</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-720066.4503439669</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-869941.8459439669</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-1001053.799143967</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-781342.8565439668</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-781342.8565439668</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-914333.1722439668</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-914333.1722439668</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-1753838.755736799</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-1621989.372536798</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-1621989.372536798</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-1494972.433736798</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-1540342.998436798</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-1865060.178036798</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-2386505.798036798</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-2386505.798036798</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-2597631.778636798</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-2836090.209936798</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-5923890.865436799</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -11374,17 +11374,11 @@
         <v>-20283814.4079606</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>6.856</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11417,11 +11411,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11454,11 +11444,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11491,11 +11477,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11528,11 +11510,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11565,11 +11543,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11598,13 +11572,15 @@
         <v>-19233403.2386606</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>6.873</v>
+      </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L339" t="n">
@@ -12227,9 +12203,11 @@
         <v>-14831609.12055419</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>7.032</v>
+      </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
@@ -12338,9 +12316,11 @@
         <v>-15897045.43325419</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>7.03</v>
+      </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
@@ -12634,9 +12614,11 @@
         <v>-15023129.78693602</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>7.038</v>
+      </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
@@ -12930,9 +12912,11 @@
         <v>-15576792.89326826</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>7.119</v>
+      </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
@@ -13226,9 +13210,11 @@
         <v>-16014287.64212066</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>7.12</v>
+      </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
@@ -13263,9 +13249,11 @@
         <v>-15710148.40542066</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>7.039</v>
+      </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
@@ -13300,9 +13288,11 @@
         <v>-15764289.12822066</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>7.048</v>
+      </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
@@ -13337,9 +13327,11 @@
         <v>-15777687.87122066</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>7.038</v>
+      </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
@@ -13374,9 +13366,11 @@
         <v>-16470640.75532066</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>7.033</v>
+      </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
@@ -13606,9 +13600,11 @@
         <v>-15840086.77366622</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>7.088</v>
+      </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
@@ -13643,9 +13639,11 @@
         <v>-16003709.24256622</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>7.043</v>
+      </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
@@ -13797,11 +13795,9 @@
         <v>-15725115.61226622</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>7.079</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
@@ -13836,11 +13832,9 @@
         <v>-16143233.15546622</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>7.045</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
@@ -13875,11 +13869,9 @@
         <v>-15889230.58046622</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>7.012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
@@ -13914,11 +13906,9 @@
         <v>-15889230.58046622</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>7.029</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
@@ -13992,11 +13982,9 @@
         <v>-15560978.03676622</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>7.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
@@ -14179,11 +14167,9 @@
         <v>-15491544.05663121</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>7.003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
@@ -14218,11 +14204,9 @@
         <v>-15361228.42163121</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
-      </c>
-      <c r="I409" t="n">
-        <v>7.032</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
@@ -14257,11 +14241,9 @@
         <v>-15386903.14733121</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
-      </c>
-      <c r="I410" t="n">
-        <v>7.046</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
@@ -14333,11 +14315,9 @@
         <v>-15624460.99723121</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>7.039</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
@@ -14372,11 +14352,9 @@
         <v>-15359084.97613121</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>7.032</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
@@ -14411,11 +14389,9 @@
         <v>-14720672.38943121</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>7.033</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
@@ -14487,11 +14463,9 @@
         <v>-14377236.12963121</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>7.033</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
@@ -18966,11 +18940,9 @@
         <v>-15389899.36996646</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
-      </c>
-      <c r="I537" t="n">
-        <v>7.037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
@@ -19042,11 +19014,9 @@
         <v>-15190726.49926646</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
-      </c>
-      <c r="I539" t="n">
-        <v>7.044</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
@@ -19192,11 +19162,9 @@
         <v>-15020743.73076646</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
-      </c>
-      <c r="I543" t="n">
-        <v>7.048</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
@@ -19231,11 +19199,9 @@
         <v>-14683122.13786646</v>
       </c>
       <c r="H544" t="n">
-        <v>1</v>
-      </c>
-      <c r="I544" t="n">
-        <v>7.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
@@ -19344,11 +19310,9 @@
         <v>-14621824.37586646</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
-      </c>
-      <c r="I547" t="n">
-        <v>7.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
@@ -19457,11 +19421,9 @@
         <v>-14611457.55966646</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
-      </c>
-      <c r="I550" t="n">
-        <v>7.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
@@ -19496,11 +19458,9 @@
         <v>-14747460.03026646</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
-      </c>
-      <c r="I551" t="n">
-        <v>7.042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
@@ -19535,11 +19495,9 @@
         <v>-14795912.70946646</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
-      </c>
-      <c r="I552" t="n">
-        <v>7.041</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
@@ -19574,11 +19532,9 @@
         <v>-14602254.67486645</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
-      </c>
-      <c r="I553" t="n">
-        <v>7.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
@@ -19613,11 +19569,9 @@
         <v>-14602254.67486645</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
-      </c>
-      <c r="I554" t="n">
-        <v>7.041</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
@@ -19652,11 +19606,9 @@
         <v>-14773977.43746645</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
-      </c>
-      <c r="I555" t="n">
-        <v>7.041</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
@@ -19691,11 +19643,9 @@
         <v>-14776598.43706645</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
-      </c>
-      <c r="I556" t="n">
-        <v>7.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
@@ -19730,11 +19680,9 @@
         <v>-14740249.05566645</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
-      </c>
-      <c r="I557" t="n">
-        <v>7.039</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
@@ -19769,11 +19717,9 @@
         <v>-14740249.05566645</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
-      </c>
-      <c r="I558" t="n">
-        <v>7.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
@@ -19808,11 +19754,9 @@
         <v>-15070300.16236645</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
-      </c>
-      <c r="I559" t="n">
-        <v>7.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
@@ -19847,11 +19791,9 @@
         <v>-15008028.22136645</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
-      </c>
-      <c r="I560" t="n">
-        <v>7.039</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
@@ -19886,11 +19828,9 @@
         <v>-14808396.33676645</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
-      </c>
-      <c r="I561" t="n">
-        <v>7.043</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
@@ -19925,11 +19865,9 @@
         <v>-14644286.28236645</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
-      </c>
-      <c r="I562" t="n">
-        <v>7.046</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
@@ -19964,11 +19902,9 @@
         <v>-14644248.11586645</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
-      </c>
-      <c r="I563" t="n">
-        <v>7.047</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
@@ -20003,11 +19939,9 @@
         <v>-14359464.23856645</v>
       </c>
       <c r="H564" t="n">
-        <v>1</v>
-      </c>
-      <c r="I564" t="n">
-        <v>7.048</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
@@ -20042,11 +19976,9 @@
         <v>-14358093.23856645</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
-      </c>
-      <c r="I565" t="n">
-        <v>7.065</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
@@ -20118,11 +20050,9 @@
         <v>-14396893.52836645</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
-      </c>
-      <c r="I567" t="n">
-        <v>7.062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
@@ -21748,16 +21678,18 @@
         <v>-11089248.85535085</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L611" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L611" t="n">
+        <v>1</v>
+      </c>
       <c r="M611" t="inlineStr"/>
     </row>
     <row r="612">
@@ -21783,11 +21715,15 @@
         <v>-11159891.44325085</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21816,11 +21752,15 @@
         <v>-10626061.67045085</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21849,11 +21789,15 @@
         <v>-12991114.33095085</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21882,11 +21826,15 @@
         <v>-12991045.33095085</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21915,11 +21863,15 @@
         <v>-13792374.54745084</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21952,7 +21904,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21981,11 +21937,15 @@
         <v>-13853688.69456566</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -22014,11 +21974,15 @@
         <v>-13704038.49766566</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -22047,11 +22011,15 @@
         <v>-13704295.37606566</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -22084,7 +22052,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -22117,7 +22089,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22150,7 +22126,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22183,7 +22163,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22216,7 +22200,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22249,7 +22237,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22282,7 +22274,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22315,7 +22311,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22348,7 +22348,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22381,7 +22385,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22414,7 +22422,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22447,7 +22459,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22480,7 +22496,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22509,11 +22529,15 @@
         <v>-14566932.49735998</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22542,11 +22566,15 @@
         <v>-14790273.31995998</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22575,11 +22603,15 @@
         <v>-15028283.61445998</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22608,11 +22640,15 @@
         <v>-15027981.56635998</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22641,11 +22677,15 @@
         <v>-15271069.56515998</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22674,11 +22714,15 @@
         <v>-15271000.56515998</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22707,11 +22751,15 @@
         <v>-15591404.60345998</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22740,11 +22788,15 @@
         <v>-15824480.22485998</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22773,11 +22825,15 @@
         <v>-16103618.28885998</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22806,11 +22862,15 @@
         <v>-16103618.28885998</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22839,11 +22899,15 @@
         <v>-15771775.56615998</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22876,7 +22940,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22905,11 +22973,15 @@
         <v>-15461811.46595998</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22938,11 +23010,15 @@
         <v>-15462063.74355998</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22971,11 +23047,15 @@
         <v>-15609377.09645998</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -23004,11 +23084,15 @@
         <v>-15609377.09645998</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23037,11 +23121,15 @@
         <v>-15641309.94315998</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23070,11 +23158,15 @@
         <v>-15912443.80025998</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23103,11 +23195,15 @@
         <v>-15912373.80025998</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23136,11 +23232,15 @@
         <v>-16109540.28215998</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23169,11 +23269,15 @@
         <v>-16109540.28215998</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23202,11 +23306,15 @@
         <v>-16344585.27315998</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23239,7 +23347,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23272,7 +23384,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23305,7 +23421,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23338,7 +23458,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23371,7 +23495,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23404,7 +23532,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23437,7 +23569,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23470,7 +23606,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23503,7 +23643,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23536,7 +23680,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23569,7 +23717,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23602,7 +23754,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23635,7 +23791,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23668,7 +23828,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23701,7 +23865,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23734,7 +23902,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23767,7 +23939,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23800,7 +23976,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23833,7 +24013,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23866,7 +24050,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23899,7 +24087,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23932,7 +24124,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23965,7 +24161,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23998,7 +24198,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -24031,7 +24235,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24064,7 +24272,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24097,7 +24309,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24130,7 +24346,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24163,7 +24383,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24192,15 +24416,15 @@
         <v>-17342761.00845998</v>
       </c>
       <c r="H685" t="n">
-        <v>1</v>
-      </c>
-      <c r="I685" t="n">
-        <v>7.184</v>
-      </c>
-      <c r="J685" t="n">
-        <v>7.184</v>
-      </c>
-      <c r="K685" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I685" t="inlineStr"/>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24229,17 +24453,13 @@
         <v>-18142761.00845998</v>
       </c>
       <c r="H686" t="n">
-        <v>1</v>
-      </c>
-      <c r="I686" t="n">
-        <v>7.174</v>
-      </c>
-      <c r="J686" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I686" t="inlineStr"/>
+      <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L686" t="n">
@@ -24270,14 +24490,10 @@
         <v>-18004004.23505998</v>
       </c>
       <c r="H687" t="n">
-        <v>1</v>
-      </c>
-      <c r="I687" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="J687" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I687" t="inlineStr"/>
+      <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24311,14 +24527,10 @@
         <v>-18195660.43655998</v>
       </c>
       <c r="H688" t="n">
-        <v>1</v>
-      </c>
-      <c r="I688" t="n">
-        <v>7.186</v>
-      </c>
-      <c r="J688" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I688" t="inlineStr"/>
+      <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24352,14 +24564,10 @@
         <v>-17888244.87555998</v>
       </c>
       <c r="H689" t="n">
-        <v>1</v>
-      </c>
-      <c r="I689" t="n">
-        <v>7.166</v>
-      </c>
-      <c r="J689" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I689" t="inlineStr"/>
+      <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24393,14 +24601,10 @@
         <v>-17652926.79575998</v>
       </c>
       <c r="H690" t="n">
-        <v>1</v>
-      </c>
-      <c r="I690" t="n">
-        <v>7.171</v>
-      </c>
-      <c r="J690" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I690" t="inlineStr"/>
+      <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24434,14 +24638,10 @@
         <v>-17651692.79575998</v>
       </c>
       <c r="H691" t="n">
-        <v>1</v>
-      </c>
-      <c r="I691" t="n">
-        <v>7.173</v>
-      </c>
-      <c r="J691" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I691" t="inlineStr"/>
+      <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24475,14 +24675,10 @@
         <v>-17651692.79575998</v>
       </c>
       <c r="H692" t="n">
-        <v>1</v>
-      </c>
-      <c r="I692" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="J692" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I692" t="inlineStr"/>
+      <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24516,14 +24712,10 @@
         <v>-17945207.98545998</v>
       </c>
       <c r="H693" t="n">
-        <v>1</v>
-      </c>
-      <c r="I693" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="J693" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I693" t="inlineStr"/>
+      <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24557,14 +24749,10 @@
         <v>-17932405.03465998</v>
       </c>
       <c r="H694" t="n">
-        <v>1</v>
-      </c>
-      <c r="I694" t="n">
-        <v>7.179</v>
-      </c>
-      <c r="J694" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I694" t="inlineStr"/>
+      <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24598,14 +24786,10 @@
         <v>-18100309.60255998</v>
       </c>
       <c r="H695" t="n">
-        <v>1</v>
-      </c>
-      <c r="I695" t="n">
-        <v>7.191</v>
-      </c>
-      <c r="J695" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I695" t="inlineStr"/>
+      <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24639,14 +24823,10 @@
         <v>-18372358.46905998</v>
       </c>
       <c r="H696" t="n">
-        <v>1</v>
-      </c>
-      <c r="I696" t="n">
-        <v>7.184</v>
-      </c>
-      <c r="J696" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I696" t="inlineStr"/>
+      <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24680,14 +24860,10 @@
         <v>-18372358.46905998</v>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
-      </c>
-      <c r="I697" t="n">
-        <v>7.182</v>
-      </c>
-      <c r="J697" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I697" t="inlineStr"/>
+      <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24721,14 +24897,10 @@
         <v>-18036332.07785998</v>
       </c>
       <c r="H698" t="n">
-        <v>1</v>
-      </c>
-      <c r="I698" t="n">
-        <v>7.182</v>
-      </c>
-      <c r="J698" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I698" t="inlineStr"/>
+      <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24762,14 +24934,10 @@
         <v>-17731568.67625998</v>
       </c>
       <c r="H699" t="n">
-        <v>1</v>
-      </c>
-      <c r="I699" t="n">
-        <v>7.184</v>
-      </c>
-      <c r="J699" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I699" t="inlineStr"/>
+      <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24803,14 +24971,10 @@
         <v>-17731993.82405998</v>
       </c>
       <c r="H700" t="n">
-        <v>1</v>
-      </c>
-      <c r="I700" t="n">
-        <v>7.187</v>
-      </c>
-      <c r="J700" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I700" t="inlineStr"/>
+      <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24844,14 +25008,10 @@
         <v>-17731993.82405998</v>
       </c>
       <c r="H701" t="n">
-        <v>1</v>
-      </c>
-      <c r="I701" t="n">
-        <v>7.184</v>
-      </c>
-      <c r="J701" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I701" t="inlineStr"/>
+      <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24885,14 +25045,10 @@
         <v>-17731993.82405998</v>
       </c>
       <c r="H702" t="n">
-        <v>1</v>
-      </c>
-      <c r="I702" t="n">
-        <v>7.184</v>
-      </c>
-      <c r="J702" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I702" t="inlineStr"/>
+      <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24926,14 +25082,10 @@
         <v>-17557746.85805998</v>
       </c>
       <c r="H703" t="n">
-        <v>1</v>
-      </c>
-      <c r="I703" t="n">
-        <v>7.184</v>
-      </c>
-      <c r="J703" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I703" t="inlineStr"/>
+      <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24967,14 +25119,10 @@
         <v>-17517993.48855998</v>
       </c>
       <c r="H704" t="n">
-        <v>1</v>
-      </c>
-      <c r="I704" t="n">
-        <v>7.185</v>
-      </c>
-      <c r="J704" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I704" t="inlineStr"/>
+      <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25008,14 +25156,10 @@
         <v>-17225560.17995998</v>
       </c>
       <c r="H705" t="n">
-        <v>1</v>
-      </c>
-      <c r="I705" t="n">
-        <v>7.191</v>
-      </c>
-      <c r="J705" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I705" t="inlineStr"/>
+      <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25049,14 +25193,10 @@
         <v>-17216326.17995998</v>
       </c>
       <c r="H706" t="n">
-        <v>1</v>
-      </c>
-      <c r="I706" t="n">
-        <v>7.197</v>
-      </c>
-      <c r="J706" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I706" t="inlineStr"/>
+      <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25090,14 +25230,10 @@
         <v>-17169165.44065998</v>
       </c>
       <c r="H707" t="n">
-        <v>1</v>
-      </c>
-      <c r="I707" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="J707" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I707" t="inlineStr"/>
+      <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25131,14 +25267,10 @@
         <v>-17218827.51266645</v>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
-      </c>
-      <c r="I708" t="n">
-        <v>7.221</v>
-      </c>
-      <c r="J708" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I708" t="inlineStr"/>
+      <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25172,14 +25304,10 @@
         <v>-16866525.11906645</v>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
-      </c>
-      <c r="I709" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="J709" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I709" t="inlineStr"/>
+      <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25213,14 +25341,10 @@
         <v>-16860525.11906645</v>
       </c>
       <c r="H710" t="n">
-        <v>1</v>
-      </c>
-      <c r="I710" t="n">
-        <v>7.218</v>
-      </c>
-      <c r="J710" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I710" t="inlineStr"/>
+      <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25254,14 +25378,10 @@
         <v>-17145375.87386645</v>
       </c>
       <c r="H711" t="n">
-        <v>1</v>
-      </c>
-      <c r="I711" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="J711" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I711" t="inlineStr"/>
+      <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25295,14 +25415,10 @@
         <v>-17144141.87386645</v>
       </c>
       <c r="H712" t="n">
-        <v>1</v>
-      </c>
-      <c r="I712" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="J712" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I712" t="inlineStr"/>
+      <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25336,14 +25452,10 @@
         <v>-17502446.85976645</v>
       </c>
       <c r="H713" t="n">
-        <v>1</v>
-      </c>
-      <c r="I713" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="J713" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I713" t="inlineStr"/>
+      <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25377,14 +25489,10 @@
         <v>-17499946.85976645</v>
       </c>
       <c r="H714" t="n">
-        <v>1</v>
-      </c>
-      <c r="I714" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="J714" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I714" t="inlineStr"/>
+      <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25418,14 +25526,10 @@
         <v>-17249156.82836645</v>
       </c>
       <c r="H715" t="n">
-        <v>1</v>
-      </c>
-      <c r="I715" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="J715" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I715" t="inlineStr"/>
+      <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25459,14 +25563,10 @@
         <v>-17248045.82836645</v>
       </c>
       <c r="H716" t="n">
-        <v>1</v>
-      </c>
-      <c r="I716" t="n">
-        <v>7.231</v>
-      </c>
-      <c r="J716" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I716" t="inlineStr"/>
+      <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25500,14 +25600,10 @@
         <v>-17248146.58736645</v>
       </c>
       <c r="H717" t="n">
-        <v>1</v>
-      </c>
-      <c r="I717" t="n">
-        <v>7.238</v>
-      </c>
-      <c r="J717" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I717" t="inlineStr"/>
+      <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25541,14 +25637,10 @@
         <v>-17390693.88246645</v>
       </c>
       <c r="H718" t="n">
-        <v>1</v>
-      </c>
-      <c r="I718" t="n">
-        <v>7.231</v>
-      </c>
-      <c r="J718" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I718" t="inlineStr"/>
+      <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25582,14 +25674,10 @@
         <v>-17390693.88246645</v>
       </c>
       <c r="H719" t="n">
-        <v>1</v>
-      </c>
-      <c r="I719" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="J719" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I719" t="inlineStr"/>
+      <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25623,14 +25711,10 @@
         <v>-17730573.93556645</v>
       </c>
       <c r="H720" t="n">
-        <v>1</v>
-      </c>
-      <c r="I720" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="J720" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I720" t="inlineStr"/>
+      <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25664,14 +25748,10 @@
         <v>-17730573.93556645</v>
       </c>
       <c r="H721" t="n">
-        <v>1</v>
-      </c>
-      <c r="I721" t="n">
-        <v>7.201</v>
-      </c>
-      <c r="J721" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I721" t="inlineStr"/>
+      <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25705,14 +25785,10 @@
         <v>-17730503.93556645</v>
       </c>
       <c r="H722" t="n">
-        <v>1</v>
-      </c>
-      <c r="I722" t="n">
-        <v>7.201</v>
-      </c>
-      <c r="J722" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I722" t="inlineStr"/>
+      <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25746,14 +25822,10 @@
         <v>-17454377.71136645</v>
       </c>
       <c r="H723" t="n">
-        <v>1</v>
-      </c>
-      <c r="I723" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="J723" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I723" t="inlineStr"/>
+      <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25787,14 +25859,10 @@
         <v>-16624976.83126645</v>
       </c>
       <c r="H724" t="n">
-        <v>1</v>
-      </c>
-      <c r="I724" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="J724" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I724" t="inlineStr"/>
+      <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25828,14 +25896,10 @@
         <v>-16333128.87606645</v>
       </c>
       <c r="H725" t="n">
-        <v>1</v>
-      </c>
-      <c r="I725" t="n">
-        <v>7.234</v>
-      </c>
-      <c r="J725" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I725" t="inlineStr"/>
+      <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25869,14 +25933,10 @@
         <v>-16333628.87606645</v>
       </c>
       <c r="H726" t="n">
-        <v>1</v>
-      </c>
-      <c r="I726" t="n">
-        <v>7.236</v>
-      </c>
-      <c r="J726" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I726" t="inlineStr"/>
+      <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25910,14 +25970,10 @@
         <v>-16076135.49366645</v>
       </c>
       <c r="H727" t="n">
-        <v>1</v>
-      </c>
-      <c r="I727" t="n">
-        <v>7.234</v>
-      </c>
-      <c r="J727" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I727" t="inlineStr"/>
+      <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25951,14 +26007,10 @@
         <v>-16076135.49366645</v>
       </c>
       <c r="H728" t="n">
-        <v>1</v>
-      </c>
-      <c r="I728" t="n">
-        <v>7.237</v>
-      </c>
-      <c r="J728" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I728" t="inlineStr"/>
+      <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25992,14 +26044,10 @@
         <v>-16299647.17966645</v>
       </c>
       <c r="H729" t="n">
-        <v>1</v>
-      </c>
-      <c r="I729" t="n">
-        <v>7.237</v>
-      </c>
-      <c r="J729" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I729" t="inlineStr"/>
+      <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26033,14 +26081,10 @@
         <v>-16299647.17966645</v>
       </c>
       <c r="H730" t="n">
-        <v>1</v>
-      </c>
-      <c r="I730" t="n">
-        <v>7.236</v>
-      </c>
-      <c r="J730" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I730" t="inlineStr"/>
+      <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26074,14 +26118,10 @@
         <v>-16299647.17966645</v>
       </c>
       <c r="H731" t="n">
-        <v>1</v>
-      </c>
-      <c r="I731" t="n">
-        <v>7.236</v>
-      </c>
-      <c r="J731" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I731" t="inlineStr"/>
+      <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26115,14 +26155,10 @@
         <v>-16297946.75626645</v>
       </c>
       <c r="H732" t="n">
-        <v>1</v>
-      </c>
-      <c r="I732" t="n">
-        <v>7.236</v>
-      </c>
-      <c r="J732" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I732" t="inlineStr"/>
+      <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26156,14 +26192,10 @@
         <v>-16297946.75626645</v>
       </c>
       <c r="H733" t="n">
-        <v>1</v>
-      </c>
-      <c r="I733" t="n">
-        <v>7.237</v>
-      </c>
-      <c r="J733" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I733" t="inlineStr"/>
+      <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26197,14 +26229,10 @@
         <v>-16102383.76183087</v>
       </c>
       <c r="H734" t="n">
-        <v>1</v>
-      </c>
-      <c r="I734" t="n">
-        <v>7.237</v>
-      </c>
-      <c r="J734" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I734" t="inlineStr"/>
+      <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26238,14 +26266,10 @@
         <v>-15934750.33823087</v>
       </c>
       <c r="H735" t="n">
-        <v>1</v>
-      </c>
-      <c r="I735" t="n">
-        <v>7.239</v>
-      </c>
-      <c r="J735" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I735" t="inlineStr"/>
+      <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26279,14 +26303,10 @@
         <v>-15929038.87073087</v>
       </c>
       <c r="H736" t="n">
-        <v>1</v>
-      </c>
-      <c r="I736" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="J736" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I736" t="inlineStr"/>
+      <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26320,14 +26340,10 @@
         <v>-15780120.55053087</v>
       </c>
       <c r="H737" t="n">
-        <v>1</v>
-      </c>
-      <c r="I737" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="J737" t="n">
-        <v>7.184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I737" t="inlineStr"/>
+      <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26361,19 +26377,17 @@
         <v>-16185611.97223087</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="n">
-        <v>7.184</v>
-      </c>
+      <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L738" t="n">
-        <v>1.006553452115813</v>
+        <v>1</v>
       </c>
       <c r="M738" t="inlineStr"/>
     </row>
@@ -26400,11 +26414,15 @@
         <v>-15847304.76553087</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -26433,11 +26451,15 @@
         <v>-16154847.91753087</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -26466,11 +26488,15 @@
         <v>-16154347.91753087</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -26499,11 +26525,15 @@
         <v>-16154347.91753087</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -26532,11 +26562,15 @@
         <v>-15841162.71603087</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -26565,11 +26599,15 @@
         <v>-15893209.86003087</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -26598,11 +26636,15 @@
         <v>-15650501.00203087</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -26631,11 +26673,15 @@
         <v>-15591807.40363087</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -26664,11 +26710,15 @@
         <v>-15185129.09203087</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -26697,11 +26747,15 @@
         <v>-15185129.09203087</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -26730,11 +26784,15 @@
         <v>-15008389.47403087</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26763,11 +26821,15 @@
         <v>-14425917.9484402</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26796,11 +26858,15 @@
         <v>-13744580.0023402</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26829,11 +26895,15 @@
         <v>-13179135.0710402</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26862,11 +26932,15 @@
         <v>-13315851.3046402</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26895,11 +26969,15 @@
         <v>-13314342.9678402</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26932,7 +27010,11 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26965,7 +27047,11 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26998,7 +27084,11 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -27031,7 +27121,11 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -27064,7 +27158,11 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -27097,7 +27195,11 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -27130,7 +27232,11 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -27163,7 +27269,11 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -27196,7 +27306,11 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -27229,7 +27343,11 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -27262,7 +27380,11 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -27295,7 +27417,11 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -27328,7 +27454,11 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -27361,7 +27491,11 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -27394,7 +27528,11 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -27427,7 +27565,11 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -27460,7 +27602,11 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -27493,7 +27639,11 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -27526,7 +27676,11 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -27559,7 +27713,11 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -27592,7 +27750,11 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -27625,7 +27787,11 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -27658,7 +27824,11 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -27691,7 +27861,11 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -27724,7 +27898,11 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -27753,11 +27931,15 @@
         <v>-13171426.1437402</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -27786,11 +27968,15 @@
         <v>-13171356.1437402</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -27819,11 +28005,15 @@
         <v>-13414373.3609402</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -27856,7 +28046,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -27889,7 +28083,11 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -27922,7 +28120,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -27955,7 +28157,11 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -27988,7 +28194,11 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -28021,7 +28231,11 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -28054,7 +28268,11 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -28087,7 +28305,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -28120,7 +28342,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -28153,7 +28379,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -28186,7 +28416,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -28219,7 +28453,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -28248,11 +28486,15 @@
         <v>-14051054.4790402</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -28281,11 +28523,15 @@
         <v>-14335295.0349402</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -28318,7 +28564,11 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -28351,7 +28601,11 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -28384,7 +28638,11 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -28417,7 +28675,11 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -28450,7 +28712,11 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -28483,7 +28749,11 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -28516,7 +28786,11 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -28549,7 +28823,11 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -28582,7 +28860,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -28615,7 +28897,11 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -28648,7 +28934,11 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -28681,7 +28971,11 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -28714,7 +29008,11 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -28747,7 +29045,11 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -28780,7 +29082,11 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -28813,7 +29119,11 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -28846,7 +29156,11 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -28879,7 +29193,11 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -28912,7 +29230,11 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -28945,7 +29267,11 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -28978,7 +29304,11 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -29011,7 +29341,11 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -29044,7 +29378,11 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -29077,7 +29415,11 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -29110,7 +29452,11 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -29143,7 +29489,11 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -29176,7 +29526,11 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -29209,7 +29563,11 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -29238,11 +29596,15 @@
         <v>-13579535.90004021</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -29271,11 +29633,15 @@
         <v>-13452571.58104021</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -29308,7 +29674,11 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -29341,7 +29711,11 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -29374,7 +29748,11 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -29407,7 +29785,11 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -29440,7 +29822,11 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -29473,7 +29859,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -29506,7 +29896,11 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -29539,7 +29933,11 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -29572,7 +29970,11 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -29605,7 +30007,11 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -29638,7 +30044,11 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -29671,7 +30081,11 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -29704,7 +30118,11 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -29737,7 +30155,11 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -29770,7 +30192,11 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -29803,7 +30229,11 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -29836,7 +30266,11 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -29869,7 +30303,11 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -29902,7 +30340,11 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -29935,7 +30377,11 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -29968,7 +30414,11 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -30001,7 +30451,11 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -30034,7 +30488,11 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -30067,7 +30525,11 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -30100,7 +30562,11 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -30133,7 +30599,11 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -30166,7 +30636,11 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -30199,7 +30673,11 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -30232,7 +30710,11 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -30265,7 +30747,11 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -30298,7 +30784,11 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -30331,7 +30821,11 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -30364,7 +30858,11 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -30397,7 +30895,11 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -30430,7 +30932,11 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -30463,7 +30969,11 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -30496,7 +31006,11 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -30529,7 +31043,11 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
